--- a/seleniums/src/main/java/testData/TestData.xlsx
+++ b/seleniums/src/main/java/testData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24521"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3a1\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77BDED1-CF20-4743-869A-8038A75407CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3ADD6DE-EFD8-468C-9F69-BF02C0AB94FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,61 +36,61 @@
     <t>Id</t>
   </si>
   <si>
+    <t>EmailID</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
     <t>ID01</t>
   </si>
   <si>
-    <t>EmailID</t>
-  </si>
-  <si>
     <t>john@wick.com</t>
   </si>
   <si>
-    <t>Firstname</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
-    <t>Lastname</t>
-  </si>
-  <si>
     <t>Wick</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>John@123</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>Microsoft</t>
   </si>
   <si>
-    <t>Address1</t>
-  </si>
-  <si>
     <t>4-41-88/2 sanathnagar</t>
   </si>
   <si>
-    <t>Address2</t>
-  </si>
-  <si>
     <t>Jagathgirigutta</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -583,9 +583,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -942,103 +945,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="14.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
         <v>50037</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
+      <c r="K2" s="2">
         <v>8019271171</v>
       </c>
     </row>

--- a/seleniums/src/main/java/testData/TestData.xlsx
+++ b/seleniums/src/main/java/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3a1\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3ADD6DE-EFD8-468C-9F69-BF02C0AB94FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C93CEF0-9F12-4BBF-B43D-9FEF27586230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>ID02</t>
   </si>
 </sst>
 </file>
@@ -945,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1029,9 +1032,45 @@
         <v>8019271171</v>
       </c>
     </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>50037</v>
+      </c>
+      <c r="K3" s="2">
+        <v>8019271171</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{2D70334F-DE08-4513-81C4-EF75F9310C10}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8DEE5C39-436D-4677-AC4B-7FCE0D034436}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
